--- a/Practica Maquina de cafe/Entrega2021/Calificicaciones.xlsx
+++ b/Practica Maquina de cafe/Entrega2021/Calificicaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/guillermo_rubiogomez_uclm_es/Documents/UCLM_DOC/09_Docencia/01_AutomatizacionIndustrial/Repo_AI/Practica Maquina de cafe/Entrega2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="11_AD4D2F04E46CFB4ACB3E20687D17F402683EDF26" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD23FE1B-DE31-4530-9EC7-CB59E7E76286}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="11_AD4D2F04E46CFB4ACB3E20687D17F402683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D839F709-0041-4E40-A221-3D8ED4F1F918}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1344" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -369,6 +369,122 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -408,122 +524,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -538,13 +538,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90E27DBE-FA31-4B4F-8A8B-F45824DB5BC4}" name="Tabla1" displayName="Tabla1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90E27DBE-FA31-4B4F-8A8B-F45824DB5BC4}" name="Tabla1" displayName="Tabla1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F13" xr:uid="{6426125F-4D61-4BEC-AF4B-F2F0F7C5C3DA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{34EC6778-DE01-43F5-BAD5-44A5944B1AB6}" name="Grupo" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{10EEC06B-4C0E-48BC-9DE5-ECDCE851935D}" name="Correccion formal" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9F29FA8B-4E81-4BD8-B7C8-564796AE2F62}" name="Funcionamiento" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A2DC2323-C251-459F-98BD-68FFE84EAA2E}" name="Detalles" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{34EC6778-DE01-43F5-BAD5-44A5944B1AB6}" name="Grupo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{10EEC06B-4C0E-48BC-9DE5-ECDCE851935D}" name="Correccion formal" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9F29FA8B-4E81-4BD8-B7C8-564796AE2F62}" name="Funcionamiento" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A2DC2323-C251-459F-98BD-68FFE84EAA2E}" name="Detalles" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{7C87345A-9539-4E5C-B91E-B9A00867B1CB}" name="Total" dataDxfId="1">
       <calculatedColumnFormula>(Tabla1[[#This Row],[Correccion formal]]*B$14/100)+(Tabla1[[#This Row],[Funcionamiento]]*C$14/100)+(Tabla1[[#This Row],[Detalles]]*D$14/100)</calculatedColumnFormula>
     </tableColumn>
@@ -820,13 +820,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="68.28515625" customWidth="1"/>
   </cols>
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
@@ -887,7 +887,7 @@
       </c>
       <c r="E3" s="6">
         <f>(Tabla1[[#This Row],[Correccion formal]]*B$14/100)+(Tabla1[[#This Row],[Funcionamiento]]*C$14/100)+(Tabla1[[#This Row],[Detalles]]*D$14/100)</f>
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>19</v>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
